--- a/REGULAR/OJT/NEW DONE/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MARTINEZ, BELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE281122-0D4D-4FBA-AFFB-4A5301F3E44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1330,7 +1329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2056,7 +2055,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2098,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2162,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2222,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2288,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2351,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2449,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2508,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2573,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2616,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2691,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2877,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2943,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3001,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3067,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3123,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3198,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3241,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3308,7 +3307,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3363,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,26 +3459,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K720" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K720" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K720" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K720"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3786,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3796,7 +3795,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3804,33 +3803,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K720"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3288" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3285" topLeftCell="A634"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K648" sqref="K648"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3901,7 +3901,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3914,7 +3914,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3931,7 +3931,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
         <v>23</v>
@@ -3975,7 +3975,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.904999999999973</v>
+        <v>73.154999999999973</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3985,12 +3985,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.125</v>
+        <v>155.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
         <v>70</v>
@@ -4012,7 +4012,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="54">
         <v>35430</v>
@@ -4027,7 +4027,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="46" t="s">
         <v>71</v>
@@ -4047,7 +4047,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>69</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>35431</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>52</v>
@@ -4105,7 +4105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>53</v>
@@ -4124,7 +4124,7 @@
         <v>35458</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>35462</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>35490</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>35521</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>35551</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>35582</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>35612</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>35643</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>35674</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>35704</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>35735</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>35765</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>72</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>35796</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>35802</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>99</v>
@@ -4426,7 +4426,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>35827</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>60</v>
@@ -4474,7 +4474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>35855</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4520,7 +4520,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>35886</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>35891</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>35916</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>100</v>
@@ -4594,7 +4594,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4612,7 +4612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>101</v>
@@ -4632,7 +4632,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>35947</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>35964</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20" t="s">
         <v>99</v>
@@ -4678,7 +4678,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>35977</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>36004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>102</v>
@@ -4724,7 +4724,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>36008</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>36033</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>103</v>
@@ -4767,7 +4767,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>36039</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>36045</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -4815,7 +4815,7 @@
         <v>36066</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>109</v>
@@ -4835,7 +4835,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>36069</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>36100</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>36130</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20" t="s">
         <v>111</v>
@@ -4925,7 +4925,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>112</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>36161</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4993,7 +4993,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>36192</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20" t="s">
         <v>113</v>
@@ -5039,7 +5039,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>36220</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -5085,7 +5085,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5107,7 +5107,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>114</v>
@@ -5127,7 +5127,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>36251</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>61</v>
@@ -5175,7 +5175,7 @@
         <v>36279</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20" t="s">
         <v>429</v>
@@ -5195,7 +5195,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="46"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>36281</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>52</v>
@@ -5238,7 +5238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>53</v>
@@ -5257,7 +5257,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>110</v>
@@ -5274,7 +5274,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>36312</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>36317</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -5320,7 +5320,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>36342</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>36346</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>116</v>
@@ -5366,7 +5366,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>36373</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>36404</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>36419</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20" t="s">
         <v>118</v>
@@ -5438,7 +5438,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -5455,7 +5455,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>119</v>
@@ -5477,7 +5477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5497,7 +5497,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>36434</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>61</v>
@@ -5545,7 +5545,7 @@
         <v>36459</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>121</v>
@@ -5565,7 +5565,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>36465</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>36495</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20" t="s">
         <v>131</v>
@@ -5632,7 +5632,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>73</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>36526</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>132</v>
@@ -5695,7 +5695,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>36557</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>36570</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>133</v>
@@ -5741,7 +5741,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>36586</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>60</v>
@@ -5787,7 +5787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20" t="s">
         <v>134</v>
@@ -5807,7 +5807,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>36617</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>135</v>
@@ -5853,7 +5853,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>36647</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>61</v>
@@ -5901,7 +5901,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>136</v>
@@ -5921,7 +5921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>36678</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>36708</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>36739</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>53</v>
@@ -6013,7 +6013,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>144</v>
@@ -6033,7 +6033,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>36770</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>36800</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20" t="s">
         <v>145</v>
@@ -6107,7 +6107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20" t="s">
         <v>61</v>
@@ -6129,7 +6129,7 @@
         <v>36839</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>36831</v>
       </c>
@@ -6153,7 +6153,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>36861</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>36874</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -6201,7 +6201,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -6223,7 +6223,7 @@
         <v>36888</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20" t="s">
         <v>147</v>
@@ -6243,7 +6243,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
         <v>74</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>36892</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20" t="s">
         <v>53</v>
@@ -6308,7 +6308,7 @@
         <v>36921</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>151</v>
@@ -6325,7 +6325,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>36923</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>36931</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -6368,7 +6368,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>36951</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20" t="s">
         <v>158</v>
@@ -6411,7 +6411,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="46"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>36982</v>
       </c>
@@ -6435,7 +6435,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>37012</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20" t="s">
         <v>56</v>
@@ -6483,7 +6483,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>60</v>
@@ -6505,7 +6505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>37043</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="20" t="s">
         <v>154</v>
@@ -6551,7 +6551,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>37073</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>37104</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>37123</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>113</v>
@@ -6621,7 +6621,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>37135</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>155</v>
@@ -6667,7 +6667,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>37165</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>37179</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38"/>
       <c r="B132" s="20" t="s">
         <v>52</v>
@@ -6713,7 +6713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38"/>
       <c r="B133" s="20" t="s">
         <v>156</v>
@@ -6733,7 +6733,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>37196</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>61</v>
@@ -6781,7 +6781,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38"/>
       <c r="B136" s="20" t="s">
         <v>157</v>
@@ -6801,7 +6801,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>37226</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
         <v>75</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>37257</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>37270</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38"/>
       <c r="B140" s="20" t="s">
         <v>52</v>
@@ -6889,7 +6889,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38"/>
       <c r="B141" s="20" t="s">
         <v>165</v>
@@ -6909,7 +6909,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>37288</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38"/>
       <c r="B143" s="20" t="s">
         <v>53</v>
@@ -6957,7 +6957,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>56</v>
@@ -6979,7 +6979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7001,7 +7001,7 @@
         <v>37313</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>61</v>
@@ -7023,7 +7023,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
       <c r="B147" s="20" t="s">
         <v>168</v>
@@ -7040,7 +7040,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>37316</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>37334</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>53</v>
@@ -7085,7 +7085,7 @@
         <v>37336</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38"/>
       <c r="B150" s="20" t="s">
         <v>52</v>
@@ -7105,7 +7105,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>169</v>
@@ -7125,7 +7125,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>37347</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>37377</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>53</v>
@@ -7197,7 +7197,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="20" t="s">
         <v>170</v>
@@ -7217,7 +7217,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>37408</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>37413</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>169</v>
@@ -7263,7 +7263,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="46"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>37438</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>37441</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>174</v>
@@ -7309,7 +7309,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>37469</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>37500</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -7379,7 +7379,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>37530</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>37561</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>37591</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
         <v>76</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>37622</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -7519,7 +7519,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>52</v>
@@ -7539,7 +7539,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>37653</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>52</v>
@@ -7583,7 +7583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>37681</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>180</v>
@@ -7626,7 +7626,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>37712</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>37742</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -7698,7 +7698,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>37773</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -7744,7 +7744,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>37803</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -7792,7 +7792,7 @@
         <v>37825</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>187</v>
@@ -7812,7 +7812,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>37834</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>37865</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>188</v>
@@ -7878,7 +7878,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>37895</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>37926</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>37935</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38"/>
       <c r="B187" s="20" t="s">
         <v>53</v>
@@ -7950,7 +7950,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="20" t="s">
         <v>190</v>
@@ -7968,7 +7968,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>37956</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>37971</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>191</v>
@@ -8014,7 +8014,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
         <v>77</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>37987</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8084,7 +8084,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38"/>
       <c r="B194" s="20" t="s">
         <v>192</v>
@@ -8104,7 +8104,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>52</v>
@@ -8124,7 +8124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>38018</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="20" t="s">
         <v>193</v>
@@ -8170,7 +8170,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8190,7 +8190,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>38047</v>
       </c>
@@ -8214,7 +8214,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>38078</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>115</v>
@@ -8260,7 +8260,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>38108</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38"/>
       <c r="B203" s="20" t="s">
         <v>60</v>
@@ -8308,7 +8308,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>60</v>
@@ -8330,7 +8330,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>198</v>
@@ -8350,7 +8350,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <v>38139</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>56</v>
@@ -8398,7 +8398,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>203</v>
@@ -8418,7 +8418,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>38169</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>204</v>
@@ -8466,7 +8466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="20" t="s">
         <v>205</v>
@@ -8486,7 +8486,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>38200</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>38201</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>206</v>
@@ -8532,7 +8532,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>38231</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>38230</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>207</v>
@@ -8578,7 +8578,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8595,7 +8595,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>38261</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>38292</v>
       </c>
@@ -8643,7 +8643,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>38322</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="20" t="s">
         <v>213</v>
@@ -8686,7 +8686,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
         <v>78</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>38353</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38"/>
       <c r="B223" s="20" t="s">
         <v>53</v>
@@ -8753,7 +8753,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>52</v>
@@ -8773,7 +8773,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>215</v>
@@ -8790,7 +8790,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38">
         <v>38384</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="20" t="s">
         <v>52</v>
@@ -8834,7 +8834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <v>38412</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>52</v>
@@ -8877,7 +8877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>217</v>
@@ -8894,7 +8894,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>38443</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>57</v>
@@ -8939,7 +8939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>203</v>
@@ -8956,7 +8956,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>38473</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="20" t="s">
         <v>218</v>
@@ -8999,7 +8999,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>38504</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>219</v>
@@ -9045,7 +9045,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>38534</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>224</v>
@@ -9091,7 +9091,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="46"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <v>38565</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -9139,7 +9139,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>225</v>
@@ -9159,7 +9159,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>38596</v>
       </c>
@@ -9183,7 +9183,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>38626</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>101</v>
@@ -9229,7 +9229,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>38657</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38"/>
       <c r="B247" s="20" t="s">
         <v>228</v>
@@ -9275,7 +9275,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>38687</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>229</v>
@@ -9321,7 +9321,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="45" t="s">
         <v>79</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>38718</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>38749</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>38756</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>53</v>
@@ -9412,7 +9412,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>52</v>
@@ -9429,7 +9429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38"/>
       <c r="B255" s="20" t="s">
         <v>136</v>
@@ -9446,7 +9446,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>38777</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>38808</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>100</v>
@@ -9511,7 +9511,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38"/>
       <c r="B259" s="20" t="s">
         <v>61</v>
@@ -9530,7 +9530,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>38838</v>
       </c>
@@ -9554,7 +9554,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>38869</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38"/>
       <c r="B262" s="20" t="s">
         <v>52</v>
@@ -9598,7 +9598,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>237</v>
@@ -9618,7 +9618,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>38899</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38"/>
       <c r="B265" s="20" t="s">
         <v>238</v>
@@ -9662,7 +9662,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>38930</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>38961</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>241</v>
@@ -9732,7 +9732,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>38991</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>240</v>
@@ -9778,7 +9778,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>39022</v>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>39052</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>243</v>
@@ -9848,7 +9848,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="45" t="s">
         <v>80</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>39083</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>52</v>
@@ -9914,7 +9914,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38"/>
       <c r="B277" s="20" t="s">
         <v>250</v>
@@ -9934,7 +9934,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>39114</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>39120</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>57</v>
@@ -9982,7 +9982,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38"/>
       <c r="B280" s="20" t="s">
         <v>52</v>
@@ -10002,7 +10002,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>251</v>
@@ -10022,7 +10022,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>39142</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>39173</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>67</v>
@@ -10094,7 +10094,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>170</v>
@@ -10114,7 +10114,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38">
         <v>39203</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>39234</v>
       </c>
@@ -10162,7 +10162,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>39264</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10210,7 +10210,7 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38"/>
       <c r="B290" s="20" t="s">
         <v>260</v>
@@ -10230,7 +10230,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>39295</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>39326</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38"/>
       <c r="B293" s="20" t="s">
         <v>262</v>
@@ -10300,7 +10300,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <v>39356</v>
       </c>
@@ -10324,7 +10324,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>39387</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>53</v>
@@ -10369,7 +10369,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38"/>
       <c r="B297" s="20" t="s">
         <v>276</v>
@@ -10386,7 +10386,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>39417</v>
       </c>
@@ -10410,7 +10410,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="45" t="s">
         <v>81</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>39448</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>52</v>
@@ -10476,7 +10476,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>39479</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>39508</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38"/>
       <c r="B304" s="20" t="s">
         <v>65</v>
@@ -10546,7 +10546,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>268</v>
@@ -10566,7 +10566,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>39539</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>39552</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>52</v>
@@ -10612,7 +10612,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>267</v>
@@ -10632,7 +10632,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>39569</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>53</v>
@@ -10680,7 +10680,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38"/>
       <c r="B311" s="20" t="s">
         <v>269</v>
@@ -10700,7 +10700,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>39600</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>270</v>
@@ -10746,7 +10746,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>39630</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>39661</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38"/>
       <c r="B316" s="20" t="s">
         <v>278</v>
@@ -10816,7 +10816,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>39692</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>145</v>
@@ -10864,7 +10864,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>279</v>
@@ -10884,7 +10884,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>39722</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>39753</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>282</v>
@@ -10954,7 +10954,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>39783</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="45" t="s">
         <v>82</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>39814</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>52</v>
@@ -11044,7 +11044,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>65</v>
@@ -11066,7 +11066,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38"/>
       <c r="B328" s="20" t="s">
         <v>285</v>
@@ -11086,7 +11086,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>39845</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>39873</v>
       </c>
@@ -11134,7 +11134,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38">
         <v>39904</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>39934</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>289</v>
@@ -11204,7 +11204,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38"/>
       <c r="B334" s="20" t="s">
         <v>60</v>
@@ -11226,7 +11226,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>39965</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11274,7 +11274,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>264</v>
@@ -11294,7 +11294,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>39995</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>290</v>
@@ -11338,7 +11338,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
         <v>40026</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>40057</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>292</v>
@@ -11408,7 +11408,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>40087</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>65</v>
@@ -11456,7 +11456,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>215</v>
@@ -11476,7 +11476,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>40118</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>293</v>
@@ -11522,7 +11522,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>40148</v>
       </c>
@@ -11546,7 +11546,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="45" t="s">
         <v>83</v>
       </c>
@@ -11568,7 +11568,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>40179</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38"/>
       <c r="B351" s="20" t="s">
         <v>65</v>
@@ -11616,7 +11616,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>52</v>
@@ -11636,7 +11636,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>296</v>
@@ -11656,7 +11656,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>40210</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>297</v>
@@ -11700,7 +11700,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
         <v>40238</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>40269</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38"/>
       <c r="B358" s="20" t="s">
         <v>305</v>
@@ -11770,7 +11770,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>40299</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38"/>
       <c r="B360" s="20" t="s">
         <v>306</v>
@@ -11816,7 +11816,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>40330</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
         <v>40360</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>40392</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38"/>
       <c r="B363" s="20" t="s">
         <v>308</v>
@@ -11886,7 +11886,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>40391</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -11934,7 +11934,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38"/>
       <c r="B366" s="20" t="s">
         <v>309</v>
@@ -11954,7 +11954,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>40422</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>53</v>
@@ -12002,7 +12002,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38"/>
       <c r="B369" s="20" t="s">
         <v>291</v>
@@ -12022,7 +12022,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
         <v>40452</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>40469</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38"/>
       <c r="B371" s="20" t="s">
         <v>310</v>
@@ -12068,7 +12068,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38">
         <v>40483</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12114,7 +12114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38"/>
       <c r="B374" s="20" t="s">
         <v>67</v>
@@ -12136,7 +12136,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>311</v>
@@ -12156,7 +12156,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38">
         <v>40513</v>
       </c>
@@ -12180,7 +12180,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="45" t="s">
         <v>84</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38">
         <v>40544</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>53</v>
@@ -12248,7 +12248,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38"/>
       <c r="B380" s="20" t="s">
         <v>65</v>
@@ -12270,7 +12270,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>179</v>
@@ -12290,7 +12290,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <v>40575</v>
       </c>
@@ -12314,7 +12314,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38">
         <v>40603</v>
       </c>
@@ -12338,7 +12338,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <v>40634</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>318</v>
@@ -12384,7 +12384,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38">
         <v>40664</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="38"/>
       <c r="B387" s="20" t="s">
         <v>319</v>
@@ -12430,7 +12430,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <v>40695</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>67</v>
@@ -12478,7 +12478,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38"/>
       <c r="B390" s="20" t="s">
         <v>207</v>
@@ -12498,7 +12498,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <v>40725</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38">
         <v>40756</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38"/>
       <c r="B393" s="20" t="s">
         <v>321</v>
@@ -12570,7 +12570,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38">
         <v>40787</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>40799</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38">
         <v>40817</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38"/>
       <c r="B396" s="20" t="s">
         <v>326</v>
@@ -12642,7 +12642,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38">
         <v>40848</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>327</v>
@@ -12688,7 +12688,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38">
         <v>40878</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38"/>
       <c r="B400" s="20" t="s">
         <v>100</v>
@@ -12734,7 +12734,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>329</v>
@@ -12754,7 +12754,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="45" t="s">
         <v>85</v>
       </c>
@@ -12776,7 +12776,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38">
         <v>40909</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38"/>
       <c r="B404" s="20" t="s">
         <v>332</v>
@@ -12822,7 +12822,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38">
         <v>40940</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <v>40969</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>52</v>
@@ -12890,7 +12890,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38"/>
       <c r="B408" s="20" t="s">
         <v>334</v>
@@ -12910,7 +12910,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38">
         <v>41000</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38"/>
       <c r="B410" s="20" t="s">
         <v>335</v>
@@ -12956,7 +12956,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38">
         <v>41030</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="38"/>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -13004,7 +13004,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38"/>
       <c r="B413" s="20" t="s">
         <v>336</v>
@@ -13024,7 +13024,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38">
         <v>41061</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38">
         <v>41091</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>41109</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>343</v>
@@ -13091,7 +13091,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38">
         <v>41122</v>
       </c>
@@ -13115,7 +13115,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38">
         <v>41153</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38">
         <v>41183</v>
       </c>
@@ -13163,7 +13163,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38">
         <v>41214</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>52</v>
@@ -13207,7 +13207,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13227,7 +13227,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <v>41244</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>41270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38"/>
       <c r="B424" s="20" t="s">
         <v>65</v>
@@ -13273,7 +13273,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>170</v>
@@ -13293,7 +13293,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="45" t="s">
         <v>86</v>
       </c>
@@ -13315,7 +13315,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <v>41275</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -13359,7 +13359,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38">
         <v>41306</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>60</v>
@@ -13407,7 +13407,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38"/>
       <c r="B431" s="20" t="s">
         <v>65</v>
@@ -13427,7 +13427,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>347</v>
@@ -13447,7 +13447,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38">
         <v>41334</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38"/>
       <c r="B434" s="20" t="s">
         <v>348</v>
@@ -13491,7 +13491,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38">
         <v>41365</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>41379</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38"/>
       <c r="B436" s="20" t="s">
         <v>65</v>
@@ -13539,7 +13539,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38"/>
       <c r="B437" s="20" t="s">
         <v>60</v>
@@ -13561,7 +13561,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>354</v>
@@ -13581,7 +13581,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38">
         <v>41395</v>
       </c>
@@ -13605,7 +13605,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38">
         <v>41426</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="38"/>
       <c r="B441" s="20" t="s">
         <v>60</v>
@@ -13653,7 +13653,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -13675,7 +13675,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
       <c r="B443" s="20" t="s">
         <v>270</v>
@@ -13695,7 +13695,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38">
         <v>41456</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>356</v>
@@ -13741,7 +13741,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38">
         <v>41487</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38"/>
       <c r="B447" s="20" t="s">
         <v>357</v>
@@ -13787,7 +13787,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38">
         <v>41518</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38"/>
       <c r="B449" s="20" t="s">
         <v>53</v>
@@ -13835,7 +13835,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38"/>
       <c r="B450" s="20" t="s">
         <v>60</v>
@@ -13857,7 +13857,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38"/>
       <c r="B451" s="20" t="s">
         <v>358</v>
@@ -13877,7 +13877,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38">
         <v>41548</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38">
         <v>41579</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -13945,7 +13945,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38">
         <v>41609</v>
       </c>
@@ -13969,7 +13969,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="45" t="s">
         <v>87</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38">
         <v>41640</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14037,7 +14037,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38"/>
       <c r="B459" s="20" t="s">
         <v>368</v>
@@ -14057,7 +14057,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38">
         <v>41671</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14105,7 +14105,7 @@
         <v>41696</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>190</v>
@@ -14125,7 +14125,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="38">
         <v>41699</v>
       </c>
@@ -14149,7 +14149,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38">
         <v>41730</v>
       </c>
@@ -14173,7 +14173,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <v>41760</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38"/>
       <c r="B466" s="20" t="s">
         <v>53</v>
@@ -14221,7 +14221,7 @@
         <v>41775</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>372</v>
@@ -14241,7 +14241,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38">
         <v>41791</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>53</v>
@@ -14287,7 +14287,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>65</v>
@@ -14307,7 +14307,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
       <c r="B471" s="20" t="s">
         <v>373</v>
@@ -14327,7 +14327,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38">
         <v>41821</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
       <c r="B473" s="20" t="s">
         <v>53</v>
@@ -14375,7 +14375,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38"/>
       <c r="B474" s="20" t="s">
         <v>52</v>
@@ -14395,7 +14395,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38"/>
       <c r="B475" s="20" t="s">
         <v>374</v>
@@ -14415,7 +14415,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38">
         <v>41852</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38"/>
       <c r="B477" s="20" t="s">
         <v>375</v>
@@ -14461,7 +14461,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="38">
         <v>41883</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>53</v>
@@ -14509,7 +14509,7 @@
         <v>41905</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38"/>
       <c r="B480" s="20" t="s">
         <v>115</v>
@@ -14529,7 +14529,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38">
         <v>41913</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38"/>
       <c r="B482" s="20" t="s">
         <v>380</v>
@@ -14575,7 +14575,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38">
         <v>41944</v>
       </c>
@@ -14599,7 +14599,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="38">
         <v>41974</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38"/>
       <c r="B485" s="20" t="s">
         <v>382</v>
@@ -14645,7 +14645,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="45" t="s">
         <v>88</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="38">
         <v>42005</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="38"/>
       <c r="B488" s="20" t="s">
         <v>53</v>
@@ -14713,7 +14713,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="38"/>
       <c r="B489" s="20" t="s">
         <v>65</v>
@@ -14735,7 +14735,7 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="38"/>
       <c r="B490" s="20" t="s">
         <v>384</v>
@@ -14755,7 +14755,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="38">
         <v>42036</v>
       </c>
@@ -14779,7 +14779,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="38">
         <v>42064</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="38"/>
       <c r="B493" s="20" t="s">
         <v>53</v>
@@ -14825,7 +14825,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="38"/>
       <c r="B494" s="20" t="s">
         <v>279</v>
@@ -14845,7 +14845,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="38">
         <v>42095</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>42115</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>189</v>
@@ -14891,7 +14891,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="38">
         <v>42125</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="38"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -14937,7 +14937,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="38"/>
       <c r="B499" s="20" t="s">
         <v>389</v>
@@ -14957,7 +14957,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="38">
         <v>42156</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="38"/>
       <c r="B501" s="20" t="s">
         <v>390</v>
@@ -15003,7 +15003,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="38">
         <v>42186</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>391</v>
@@ -15049,7 +15049,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <v>42217</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="38">
         <v>42248</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="38">
         <v>42278</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="38"/>
       <c r="B507" s="20" t="s">
         <v>394</v>
@@ -15143,7 +15143,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="38">
         <v>42309</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>42320</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="38"/>
       <c r="B509" s="20" t="s">
         <v>53</v>
@@ -15191,7 +15191,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="38"/>
       <c r="B510" s="20" t="s">
         <v>395</v>
@@ -15211,7 +15211,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="38">
         <v>42339</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="38"/>
       <c r="B512" s="20" t="s">
         <v>67</v>
@@ -15257,7 +15257,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>326</v>
@@ -15274,7 +15274,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="45" t="s">
         <v>89</v>
       </c>
@@ -15296,7 +15296,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="38">
         <v>42370</v>
       </c>
@@ -15320,7 +15320,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="38">
         <v>42401</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>399</v>
@@ -15361,7 +15361,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="38">
         <v>42430</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>400</v>
@@ -15407,7 +15407,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="38">
         <v>42461</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="38"/>
       <c r="B521" s="20" t="s">
         <v>52</v>
@@ -15453,7 +15453,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>401</v>
@@ -15473,7 +15473,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="38">
         <v>42491</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="38"/>
       <c r="B524" s="20" t="s">
         <v>390</v>
@@ -15519,7 +15519,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="38">
         <v>42522</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="38"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -15567,7 +15567,7 @@
         <v>42558</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>402</v>
@@ -15587,7 +15587,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="38">
         <v>42552</v>
       </c>
@@ -15611,7 +15611,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="38">
         <v>42583</v>
       </c>
@@ -15635,7 +15635,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="38">
         <v>42614</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="38"/>
       <c r="B531" s="20" t="s">
         <v>191</v>
@@ -15681,7 +15681,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="38">
         <v>42644</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="38"/>
       <c r="B533" s="20" t="s">
         <v>404</v>
@@ -15727,7 +15727,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="38">
         <v>42675</v>
       </c>
@@ -15751,7 +15751,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="38">
         <v>42705</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="45" t="s">
         <v>90</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="38">
         <v>42736</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="38"/>
       <c r="B538" s="20" t="s">
         <v>61</v>
@@ -15845,7 +15845,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="38">
         <v>42767</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="38">
         <v>42795</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="38"/>
       <c r="B541" s="20" t="s">
         <v>53</v>
@@ -15919,7 +15919,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="38">
         <v>42826</v>
       </c>
@@ -15939,7 +15939,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="38">
         <v>42856</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="38"/>
       <c r="B544" s="20" t="s">
         <v>53</v>
@@ -15987,7 +15987,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>52</v>
@@ -16007,7 +16007,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="38">
         <v>42887</v>
       </c>
@@ -16027,7 +16027,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="38">
         <v>42917</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="38">
         <v>42948</v>
       </c>
@@ -16073,7 +16073,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="38">
         <v>42979</v>
       </c>
@@ -16093,7 +16093,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="38">
         <v>43009</v>
       </c>
@@ -16113,7 +16113,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="38">
         <v>43040</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>43047</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>53</v>
@@ -16161,7 +16161,7 @@
         <v>43068</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="38"/>
       <c r="B553" s="20" t="s">
         <v>61</v>
@@ -16183,7 +16183,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="38">
         <v>43070</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>53</v>
@@ -16231,7 +16231,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="45" t="s">
         <v>91</v>
       </c>
@@ -16253,7 +16253,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="38">
         <v>43101</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>60</v>
@@ -16296,7 +16296,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="38">
         <v>43132</v>
       </c>
@@ -16316,7 +16316,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="38">
         <v>43160</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="38">
         <v>43191</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="38">
         <v>43221</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="38"/>
       <c r="B563" s="20" t="s">
         <v>60</v>
@@ -16413,7 +16413,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>53</v>
@@ -16432,7 +16432,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="38">
         <v>43252</v>
       </c>
@@ -16452,7 +16452,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="38">
         <v>43282</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="38"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -16495,7 +16495,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="38">
         <v>43313</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="38">
         <v>43344</v>
       </c>
@@ -16541,7 +16541,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="38">
         <v>43374</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="38">
         <v>43405</v>
       </c>
@@ -16583,7 +16583,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="38">
         <v>43435</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="38"/>
       <c r="B573" s="20" t="s">
         <v>65</v>
@@ -16628,7 +16628,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="45" t="s">
         <v>92</v>
       </c>
@@ -16650,7 +16650,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="38">
         <v>43466</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="38"/>
       <c r="B576" s="20" t="s">
         <v>53</v>
@@ -16696,7 +16696,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="38">
         <v>43497</v>
       </c>
@@ -16716,7 +16716,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="38">
         <v>43525</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="38">
         <v>43556</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="38">
         <v>43586</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>53</v>
@@ -16814,7 +16814,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="38"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -16836,7 +16836,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="38">
         <v>43617</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="38"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16876,7 +16876,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="38">
         <v>43647</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>53</v>
@@ -16924,7 +16924,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="38">
         <v>43678</v>
       </c>
@@ -16944,7 +16944,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="38">
         <v>43709</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="38">
         <v>43739</v>
       </c>
@@ -16990,7 +16990,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="38">
         <v>43770</v>
       </c>
@@ -17010,7 +17010,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="38">
         <v>43800</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="38"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17055,7 +17055,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>67</v>
@@ -17072,7 +17072,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="45" t="s">
         <v>46</v>
       </c>
@@ -17090,7 +17090,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="38">
         <v>43831</v>
       </c>
@@ -17110,7 +17110,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="38">
         <v>43862</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>51</v>
@@ -17154,7 +17154,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="38">
         <v>43891</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="38">
         <v>43922</v>
       </c>
@@ -17198,7 +17198,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="38">
         <v>43952</v>
       </c>
@@ -17218,7 +17218,7 @@
       <c r="J600" s="12"/>
       <c r="K600" s="15"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="38">
         <v>43983</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="38">
         <v>44013</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="38">
         <v>44044</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="38">
         <v>44075</v>
       </c>
@@ -17304,7 +17304,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="38">
         <v>44105</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="38">
         <v>44136</v>
       </c>
@@ -17348,7 +17348,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="38">
         <v>44166</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="38"/>
       <c r="B608" s="20" t="s">
         <v>56</v>
@@ -17394,7 +17394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="38"/>
       <c r="B609" s="20" t="s">
         <v>57</v>
@@ -17414,7 +17414,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="46"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="45" t="s">
         <v>47</v>
       </c>
@@ -17432,7 +17432,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="38">
         <v>44197</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="38">
         <v>44228</v>
       </c>
@@ -17476,7 +17476,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="38">
         <v>44256</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="38">
         <v>44287</v>
       </c>
@@ -17520,7 +17520,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="38">
         <v>44317</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="38">
         <v>44348</v>
       </c>
@@ -17560,7 +17560,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="38">
         <v>44378</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="38">
         <v>44409</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="38">
         <v>44440</v>
       </c>
@@ -17632,7 +17632,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="38">
         <v>44470</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="38">
         <v>44501</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="38"/>
       <c r="B622" s="20" t="s">
         <v>61</v>
@@ -17704,7 +17704,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="38">
         <v>44531</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="45" t="s">
         <v>48</v>
       </c>
@@ -17748,7 +17748,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="38">
         <v>44562</v>
       </c>
@@ -17768,7 +17768,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="38">
         <v>44593</v>
       </c>
@@ -17788,7 +17788,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="38">
         <v>44621</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -17832,7 +17832,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="38">
         <v>44652</v>
       </c>
@@ -17852,7 +17852,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="38">
         <v>44682</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="38">
         <v>44713</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="38">
         <v>44743</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="38">
         <v>44774</v>
       </c>
@@ -17944,7 +17944,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="38">
         <v>44805</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="38">
         <v>44835</v>
       </c>
@@ -17990,7 +17990,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="38">
         <v>44866</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="38"/>
       <c r="B637" s="20" t="s">
         <v>60</v>
@@ -18038,7 +18038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="38">
         <v>44896</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="38"/>
       <c r="B639" s="20" t="s">
         <v>67</v>
@@ -18084,7 +18084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="45" t="s">
         <v>426</v>
       </c>
@@ -18102,7 +18102,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="38">
         <v>44927</v>
       </c>
@@ -18122,7 +18122,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38">
         <v>44958</v>
       </c>
@@ -18142,7 +18142,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="38">
         <v>44986</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38">
         <v>45017</v>
       </c>
@@ -18182,22 +18182,24 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
         <v>45047</v>
       </c>
       <c r="B645" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C645" s="13"/>
+      <c r="C645" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D645" s="37">
         <v>2</v>
       </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H645" s="37"/>
       <c r="I645" s="9"/>
@@ -18206,7 +18208,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38"/>
       <c r="B646" s="20" t="s">
         <v>52</v>
@@ -18226,9 +18228,13 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A647" s="38"/>
-      <c r="B647" s="20"/>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="38">
+        <v>45078</v>
+      </c>
+      <c r="B647" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C647" s="13"/>
       <c r="D647" s="37"/>
       <c r="E647" s="9"/>
@@ -18237,12 +18243,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H647" s="37"/>
+      <c r="H647" s="37">
+        <v>1</v>
+      </c>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
-    </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K647" s="46">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18258,7 +18268,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18274,7 +18284,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="38"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18290,7 +18300,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18306,7 +18316,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18322,7 +18332,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="38"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18338,7 +18348,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18354,7 +18364,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18370,7 +18380,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18386,7 +18396,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18402,7 +18412,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18418,7 +18428,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18434,7 +18444,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18450,7 +18460,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18466,7 +18476,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18482,7 +18492,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="38"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18498,7 +18508,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18514,7 +18524,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="38"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18530,7 +18540,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18546,7 +18556,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="38"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18562,7 +18572,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="38"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18578,7 +18588,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="38"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18594,7 +18604,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="38"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18610,7 +18620,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="38"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18626,7 +18636,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="38"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18642,7 +18652,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="38"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18658,7 +18668,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="38"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18674,7 +18684,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="38"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18690,7 +18700,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="38"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18706,7 +18716,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18722,7 +18732,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18738,7 +18748,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="38"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18754,7 +18764,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="38"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18770,7 +18780,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="38"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18786,7 +18796,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="38"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18802,7 +18812,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="38"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18818,7 +18828,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="38"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18834,7 +18844,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="38"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18850,7 +18860,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="38"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18866,7 +18876,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="38"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18882,7 +18892,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="38"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18898,7 +18908,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="38"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18914,7 +18924,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="38"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18930,7 +18940,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="38"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18946,7 +18956,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="38"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18962,7 +18972,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="38"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18978,7 +18988,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="38"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18994,7 +19004,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="38"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19010,7 +19020,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="38"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19026,7 +19036,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="38"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19042,7 +19052,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="38"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19058,7 +19068,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="38"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19074,7 +19084,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="38"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19090,7 +19100,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="38"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19106,7 +19116,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="38"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19122,7 +19132,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="38"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19138,7 +19148,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="38"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19154,7 +19164,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="38"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19170,7 +19180,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="38"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19186,7 +19196,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="38"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19202,7 +19212,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="38"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19218,7 +19228,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="38"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19234,7 +19244,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="38"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19250,7 +19260,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="38"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19266,7 +19276,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="38"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19282,7 +19292,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="38"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19298,7 +19308,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="38"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19314,7 +19324,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="38"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19330,7 +19340,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="38"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19346,7 +19356,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="38"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19362,7 +19372,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="38"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19378,7 +19388,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="45" t="s">
         <v>47</v>
       </c>
@@ -19396,7 +19406,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="45" t="s">
         <v>47</v>
       </c>
@@ -19429,10 +19439,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19455,28 +19465,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -19489,7 +19499,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -19518,7 +19528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>7.625</v>
       </c>
@@ -19548,17 +19558,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -19579,7 +19589,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -19606,7 +19616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -19632,7 +19642,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -19658,7 +19668,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -19684,7 +19694,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -19710,7 +19720,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -19736,7 +19746,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -19762,7 +19772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -19788,7 +19798,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -19808,7 +19818,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -19828,7 +19838,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -19848,7 +19858,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -19869,7 +19879,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -19890,7 +19900,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -19911,7 +19921,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -19932,7 +19942,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -19953,7 +19963,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -19974,7 +19984,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -19995,7 +20005,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -20016,7 +20026,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -20037,7 +20047,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -20058,7 +20068,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -20079,7 +20089,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -20100,7 +20110,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -20121,7 +20131,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -20142,7 +20152,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -20163,7 +20173,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -20184,7 +20194,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20205,7 +20215,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20226,7 +20236,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20247,7 +20257,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20268,7 +20278,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20277,7 +20287,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20286,7 +20296,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20295,7 +20305,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20304,7 +20314,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20313,7 +20323,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20322,7 +20332,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20331,7 +20341,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20340,7 +20350,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20349,7 +20359,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20358,7 +20368,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20367,7 +20377,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20376,7 +20386,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20385,7 +20395,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20394,7 +20404,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20403,7 +20413,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20412,7 +20422,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20421,7 +20431,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20430,7 +20440,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20439,7 +20449,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20448,7 +20458,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -20457,7 +20467,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -20466,7 +20476,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -20475,7 +20485,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -20484,7 +20494,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -20493,7 +20503,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -20502,7 +20512,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -20511,7 +20521,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -20520,7 +20530,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -20529,7 +20539,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
